--- a/total_res/ST6_output.xlsx
+++ b/total_res/ST6_output.xlsx
@@ -78624,7 +78624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78668,6 +78668,11 @@
           <t>average_percent</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>files</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -78693,6 +78698,9 @@
       <c r="G2" t="n">
         <v>0.04</v>
       </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -78718,6 +78726,9 @@
       <c r="G3" t="n">
         <v>0.01</v>
       </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -78743,6 +78754,9 @@
       <c r="G4" t="n">
         <v>-0</v>
       </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -78768,6 +78782,9 @@
       <c r="G5" t="n">
         <v>0.04</v>
       </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -78793,6 +78810,9 @@
       <c r="G6" t="n">
         <v>0.02</v>
       </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -78818,6 +78838,9 @@
       <c r="G7" t="n">
         <v>0.03</v>
       </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -78843,6 +78866,9 @@
       <c r="G8" t="n">
         <v>0.02</v>
       </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -78868,6 +78894,9 @@
       <c r="G9" t="n">
         <v>0.03</v>
       </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -78893,6 +78922,9 @@
       <c r="G10" t="n">
         <v>0.01</v>
       </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -78918,6 +78950,9 @@
       <c r="G11" t="n">
         <v>0.03</v>
       </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -78943,6 +78978,9 @@
       <c r="G12" t="n">
         <v>-0.02</v>
       </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -78968,6 +79006,9 @@
       <c r="G13" t="n">
         <v>0.03</v>
       </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -78993,6 +79034,9 @@
       <c r="G14" t="n">
         <v>0.05</v>
       </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -79018,6 +79062,9 @@
       <c r="G15" t="n">
         <v>0.03</v>
       </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -79043,6 +79090,9 @@
       <c r="G16" t="n">
         <v>0.01</v>
       </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -79068,6 +79118,9 @@
       <c r="G17" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -79093,6 +79146,9 @@
       <c r="G18" t="n">
         <v>0.02</v>
       </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -79118,6 +79174,9 @@
       <c r="G19" t="n">
         <v>0.01</v>
       </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -79143,6 +79202,9 @@
       <c r="G20" t="n">
         <v>-0.05</v>
       </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -79168,6 +79230,9 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -79193,6 +79258,9 @@
       <c r="G22" t="n">
         <v>0.01</v>
       </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -79218,6 +79286,9 @@
       <c r="G23" t="n">
         <v>-0</v>
       </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -79243,6 +79314,9 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -79268,6 +79342,9 @@
       <c r="G25" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -79293,6 +79370,9 @@
       <c r="G26" t="n">
         <v>0.04</v>
       </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -79318,6 +79398,9 @@
       <c r="G27" t="n">
         <v>0.09</v>
       </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -79343,6 +79426,9 @@
       <c r="G28" t="n">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -79368,6 +79454,9 @@
       <c r="G29" t="n">
         <v>0.18</v>
       </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -79392,6 +79481,9 @@
       </c>
       <c r="G30" t="n">
         <v>0.04</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
